--- a/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\総合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F62400-3894-48E6-80AF-7F1FBB064801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463BD633-9D2B-4F34-AB77-8FA4E671D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="210" windowWidth="25170" windowHeight="14715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>システム名</t>
   </si>
   <si>
-    <t>　　経費管理機能作成結合テスト</t>
-  </si>
-  <si>
     <t>日付</t>
   </si>
   <si>
@@ -299,110 +296,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t>④　No.2にて登録された社員がEMSにログインする
-⑤　EMSシステムの「社員情報更新」リンクをクリックする
-⑥　EMSの「社員情報更新」にて、下記情報を入力して、「登録」ボタンをクリック。
-・氏名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記載してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・住所：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記載してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>画面の全項目をここに記載してください。</t>
-    </r>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="129" eb="132">
-      <t>ゼンコウモク</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①登録成功
 ②employeeテブールに”テスト　太郎”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
     <rPh sb="1" eb="3">
@@ -460,30 +353,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">⑦システム管理者がEMSMへログインする
-⑧EMSMシステムのパスワード更新画面にて、更新後パスワードに”123test”に入力して、更新する
-</t>
-    <rPh sb="36" eb="38">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>①登録成功
 ②更新後パスワードでEMSに再ログインができる</t>
     <rPh sb="1" eb="3">
@@ -633,61 +502,6 @@
   </si>
   <si>
     <t>「テストデータ」シートのNo.6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>⑨システム管理者がEMSMへログインする
-⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「登録」ボタンをクリック。
-・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>画面の全項目をここに記載してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="31" eb="33">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -791,6 +605,221 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑦システム管理者がEMSへログインする
+⑧EMSシステムのパスワード更新画面にて、更新後パスワードに”123test”に入力して、更新する
+</t>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">④　No.2にて登録された社員がEMSにログインする
+⑤　EMSシステムの「社員情報更新」リンクをクリックする
+⑥　EMSの「社員情報更新」にて、下記情報を入力して、「登録」ボタンをクリック。
+・氏名：nguyen 
+・性別：男
+・生年月日：2001/10/19
+・年齢：23
+・入社年月日：2024/4/1
+・社齢：0
+・郵便番号：2310861
+・住所：埼玉県朝霞市
+・電話番号：08099989988
+・個人番号：123123123123                                                                                                                                                                  
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="116" eb="120">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="142" eb="145">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>シャレイ</t>
+    </rPh>
+    <rPh sb="162" eb="166">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="179" eb="182">
+      <t>サイタマケン</t>
+    </rPh>
+    <rPh sb="182" eb="185">
+      <t>アサカシ</t>
+    </rPh>
+    <rPh sb="187" eb="191">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="205" eb="209">
+      <t>コジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑨システム管理者がEMSMへログインする
+⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「登録」ボタンをクリック。
+・社員氏名：nguyenn
+・ステータス：在籍
+・タイプ：正社員
+・生年月日：20011022
+・年齢：22
+・入社年月日：20221010
+・社齢：1
+・郵便番号：2310988
+・住所：横浜市中区
+・電話番号：09098019181
+・権限：普通
+・メール：e002＠it-sofftech.com
+・パスワード：12345
+・個人番号：123123123123
+</t>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>シャインシメイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>セイシャイン</t>
+    </rPh>
+    <rPh sb="100" eb="104">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シャレイ</t>
+    </rPh>
+    <rPh sb="144" eb="148">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="161" eb="164">
+      <t>ヨコハマシ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ナカク</t>
+    </rPh>
+    <rPh sb="168" eb="172">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="232" eb="236">
+      <t>コジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　　社員情報機能総合テスト</t>
+    <rPh sb="2" eb="6">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -802,7 +831,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,13 +983,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1416,7 +1438,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1550,19 +1572,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="4">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,6 +1641,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1649,63 +1713,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1763,16 +1770,49 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1784,28 +1824,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="4" xr:uid="{0F8C47A5-E7DA-4A6A-ACC1-7EF5F199D25F}"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{883413EB-8AE9-4336-8F77-E40A9051CE78}"/>
@@ -2088,16 +2110,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2AD0F7-53A2-4C5E-9799-BA2C8CF1C949}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="11"/>
-    <col min="22" max="22" width="5.25" style="15"/>
-    <col min="23" max="23" width="5.25" style="11"/>
-    <col min="24" max="16384" width="5.25" style="15"/>
+    <col min="1" max="21" width="5.19921875" style="11"/>
+    <col min="22" max="22" width="5.19921875" style="15"/>
+    <col min="23" max="23" width="5.19921875" style="11"/>
+    <col min="24" max="16384" width="5.19921875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -2175,7 +2197,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2216,7 +2238,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -2231,7 +2253,7 @@
       <c r="R16" s="56"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2249,7 +2271,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2269,12 +2291,12 @@
       <c r="R18" s="59"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2289,7 +2311,7 @@
       <c r="R19" s="62"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2307,7 +2329,7 @@
       <c r="R20" s="65"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2329,20 +2351,20 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="126"/>
+      <c r="G22" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="68"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
@@ -2350,7 +2372,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
@@ -2383,7 +2405,7 @@
       <c r="R24" s="54"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2401,7 +2423,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2592,23 +2614,23 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="16"/>
+    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.19921875" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -2621,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -2632,13 +2654,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="20">
         <v>45441</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -2723,18 +2745,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AY9" sqref="AY9:BD9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12:AJ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="49" width="2.125" style="26" customWidth="1"/>
-    <col min="50" max="50" width="5.75" style="26" customWidth="1"/>
-    <col min="51" max="61" width="2.125" style="26" customWidth="1"/>
-    <col min="62" max="65" width="2.375" style="26" customWidth="1"/>
-    <col min="66" max="66" width="2.125" style="26" customWidth="1"/>
-    <col min="67" max="16384" width="9.625" style="26"/>
+    <col min="1" max="49" width="2.09765625" style="26" customWidth="1"/>
+    <col min="50" max="50" width="5.69921875" style="26" customWidth="1"/>
+    <col min="51" max="61" width="2.09765625" style="26" customWidth="1"/>
+    <col min="62" max="65" width="2.3984375" style="26" customWidth="1"/>
+    <col min="66" max="66" width="2.09765625" style="26" customWidth="1"/>
+    <col min="67" max="16384" width="9.59765625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
@@ -2805,755 +2827,755 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
+      <c r="A2" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102" t="s">
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="108" t="s">
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="111"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="108" t="s">
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="101"/>
+      <c r="BM4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="110"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="111"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="32"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="87" t="s">
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="93"/>
-      <c r="W5" s="93"/>
-      <c r="X5" s="93"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="93"/>
-      <c r="AB5" s="93"/>
-      <c r="AC5" s="93"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="93"/>
-      <c r="AF5" s="93"/>
-      <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="93"/>
-      <c r="AJ5" s="93"/>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="93"/>
-      <c r="AS5" s="93"/>
-      <c r="AT5" s="93"/>
-      <c r="AU5" s="93"/>
-      <c r="AV5" s="94"/>
-      <c r="AW5" s="87" t="s">
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="87" t="s">
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="33" customFormat="1">
+      <c r="A7" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="89"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="93"/>
-      <c r="BK5" s="93"/>
-      <c r="BL5" s="93"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84" t="s">
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="84" t="s">
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="86"/>
-      <c r="AY7" s="84" t="s">
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="79"/>
+      <c r="BE7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="86"/>
-      <c r="BE7" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="86"/>
-      <c r="BJ7" s="84" t="s">
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="79"/>
+    </row>
+    <row r="8" spans="1:65" ht="69.75" customHeight="1">
+      <c r="A8" s="80">
+        <v>1</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="73"/>
+      <c r="BL8" s="73"/>
+      <c r="BM8" s="74"/>
+    </row>
+    <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
+      <c r="A9" s="107">
+        <v>2</v>
+      </c>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="117"/>
+      <c r="AV9" s="117"/>
+      <c r="AW9" s="117"/>
+      <c r="AX9" s="118"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="125"/>
+      <c r="BA9" s="125"/>
+      <c r="BB9" s="125"/>
+      <c r="BC9" s="125"/>
+      <c r="BD9" s="126"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="117"/>
+      <c r="BG9" s="117"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="118"/>
+      <c r="BJ9" s="123"/>
+      <c r="BK9" s="117"/>
+      <c r="BL9" s="117"/>
+      <c r="BM9" s="118"/>
+    </row>
+    <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
+      <c r="A10" s="80">
+        <v>3</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="117"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="117"/>
+      <c r="AW10" s="117"/>
+      <c r="AX10" s="118"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="74"/>
+    </row>
+    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A11" s="107">
         <v>4</v>
       </c>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BM7" s="86"/>
-    </row>
-    <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="66">
-        <v>1</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="80"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="78"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="77"/>
-      <c r="BL8" s="77"/>
-      <c r="BM8" s="78"/>
-    </row>
-    <row r="9" spans="1:65" s="42" customFormat="1" ht="96" customHeight="1">
-      <c r="A9" s="112">
-        <v>2</v>
-      </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="73" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="117"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="118"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="73"/>
+      <c r="BM11" s="74"/>
+    </row>
+    <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
+      <c r="A12" s="80">
+        <v>5</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="116"/>
-      <c r="AO9" s="116"/>
-      <c r="AP9" s="116"/>
-      <c r="AQ9" s="116"/>
-      <c r="AR9" s="116"/>
-      <c r="AS9" s="116"/>
-      <c r="AT9" s="116"/>
-      <c r="AU9" s="116"/>
-      <c r="AV9" s="116"/>
-      <c r="AW9" s="116"/>
-      <c r="AX9" s="117"/>
-      <c r="AY9" s="118"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
-      <c r="BC9" s="119"/>
-      <c r="BD9" s="120"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="116"/>
-      <c r="BG9" s="116"/>
-      <c r="BH9" s="116"/>
-      <c r="BI9" s="117"/>
-      <c r="BJ9" s="121"/>
-      <c r="BK9" s="116"/>
-      <c r="BL9" s="116"/>
-      <c r="BM9" s="117"/>
-    </row>
-    <row r="10" spans="1:65" s="40" customFormat="1" ht="108" customHeight="1">
-      <c r="A10" s="66">
-        <v>3</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68" t="s">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="122" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="115"/>
-      <c r="AK10" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="116"/>
-      <c r="AP10" s="116"/>
-      <c r="AQ10" s="116"/>
-      <c r="AR10" s="116"/>
-      <c r="AS10" s="116"/>
-      <c r="AT10" s="116"/>
-      <c r="AU10" s="116"/>
-      <c r="AV10" s="116"/>
-      <c r="AW10" s="116"/>
-      <c r="AX10" s="117"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="80"/>
-      <c r="BA10" s="80"/>
-      <c r="BB10" s="80"/>
-      <c r="BC10" s="80"/>
-      <c r="BD10" s="81"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="78"/>
-      <c r="BJ10" s="82"/>
-      <c r="BK10" s="77"/>
-      <c r="BL10" s="77"/>
-      <c r="BM10" s="78"/>
-    </row>
-    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A11" s="112">
-        <v>4</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="68" t="s">
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="118"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="74"/>
+    </row>
+    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A13" s="107">
+        <v>6</v>
+      </c>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="114"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="115"/>
-      <c r="AK11" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="116"/>
-      <c r="AP11" s="116"/>
-      <c r="AQ11" s="116"/>
-      <c r="AR11" s="116"/>
-      <c r="AS11" s="116"/>
-      <c r="AT11" s="116"/>
-      <c r="AU11" s="116"/>
-      <c r="AV11" s="116"/>
-      <c r="AW11" s="116"/>
-      <c r="AX11" s="117"/>
-      <c r="AY11" s="79"/>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="81"/>
-      <c r="BE11" s="76"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="78"/>
-      <c r="BJ11" s="82"/>
-      <c r="BK11" s="77"/>
-      <c r="BL11" s="77"/>
-      <c r="BM11" s="78"/>
-    </row>
-    <row r="12" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A12" s="66">
-        <v>5</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="114"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="115"/>
-      <c r="AK12" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="116"/>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="116"/>
-      <c r="AQ12" s="116"/>
-      <c r="AR12" s="116"/>
-      <c r="AS12" s="116"/>
-      <c r="AT12" s="116"/>
-      <c r="AU12" s="116"/>
-      <c r="AV12" s="116"/>
-      <c r="AW12" s="116"/>
-      <c r="AX12" s="117"/>
-      <c r="AY12" s="79"/>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="80"/>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="81"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="77"/>
-      <c r="BI12" s="78"/>
-      <c r="BJ12" s="82"/>
-      <c r="BK12" s="77"/>
-      <c r="BL12" s="77"/>
-      <c r="BM12" s="78"/>
-    </row>
-    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A13" s="112">
-        <v>6</v>
-      </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
-      <c r="AH13" s="114"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="115"/>
-      <c r="AK13" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="116"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="116"/>
-      <c r="AQ13" s="116"/>
-      <c r="AR13" s="116"/>
-      <c r="AS13" s="116"/>
-      <c r="AT13" s="116"/>
-      <c r="AU13" s="116"/>
-      <c r="AV13" s="116"/>
-      <c r="AW13" s="116"/>
-      <c r="AX13" s="117"/>
-      <c r="AY13" s="79"/>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="81"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="77"/>
-      <c r="BI13" s="78"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="77"/>
-      <c r="BL13" s="77"/>
-      <c r="BM13" s="78"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
+      <c r="AS13" s="117"/>
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="117"/>
+      <c r="AW13" s="117"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="73"/>
+      <c r="BM13" s="74"/>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="34"/>
@@ -4204,11 +4226,6 @@
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
@@ -4220,6 +4237,11 @@
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="U5:AV5"/>
     <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BE8:BI8"/>
     <mergeCell ref="BJ8:BM8"/>
@@ -4245,146 +4267,146 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="36"/>
-    <col min="5" max="5" width="20.25" style="36" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="36"/>
+    <col min="5" max="5" width="20.19921875" style="36" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" style="36" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="36" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="36" customWidth="1"/>
-    <col min="11" max="14" width="9.625" style="36"/>
-    <col min="15" max="15" width="10.625" style="36" customWidth="1"/>
-    <col min="16" max="16" width="9.625" style="36"/>
+    <col min="9" max="9" width="14.3984375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="20.69921875" style="36" customWidth="1"/>
+    <col min="11" max="14" width="9.59765625" style="36"/>
+    <col min="15" max="15" width="10.59765625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" style="36"/>
     <col min="17" max="17" width="16.5" style="36" customWidth="1"/>
-    <col min="18" max="16384" width="9.625" style="36"/>
+    <col min="18" max="16384" width="9.59765625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="44" customFormat="1" ht="13.2">
+      <c r="A2" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="F2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC2" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD2" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="44" customFormat="1" ht="13.2">
+      <c r="A3" s="44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="44" customFormat="1" ht="13.5">
-      <c r="A2" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>71</v>
-      </c>
-      <c r="AG2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH2" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="44" customFormat="1" ht="13.5">
-      <c r="A3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>74</v>
       </c>
       <c r="C3" s="45">
         <v>202407</v>
@@ -4420,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O3" s="46">
         <v>18300</v>
@@ -4471,16 +4493,16 @@
         <v>237608</v>
       </c>
       <c r="AE3" s="45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AF3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH3" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463BD633-9D2B-4F34-AB77-8FA4E671D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032D701B-30F1-47E9-8AB3-E3A28728B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -192,81 +192,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①システム管理者がEMSMへログインする
-②EMSMシステムの「社員新規登録」をクリック</t>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">③EMSMの「社員新規登録」画面にて、下記項目を入力して、「登録」ボタンをクリック
-・社員ID：自動採番でOK
-・社員タイプ：正社員
-・氏名：テスト　太郎
-・パスワード：test123
-・メール：test@it-softtech.com
-</t>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="63" eb="66">
-      <t>セイシャイン</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>タロウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>管理者からの情報更新</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -502,42 +427,6 @@
   </si>
   <si>
     <t>「テストデータ」シートのNo.6</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>⑪　No.2にて登録された社員がEMSにログインする
-⑤　EMSシステムの「給料明細」リンクをクリックする
-⑥　給料明細画面にて、対象年月に”202407”入力する</t>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>メイサイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ネンゲツ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -609,33 +498,232 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">⑦システム管理者がEMSへログインする
-⑧EMSシステムのパスワード更新画面にて、更新後パスワードに”123test”に入力して、更新する
+    <t>　　社員情報機能総合テスト</t>
+    <rPh sb="2" eb="6">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①システム管理者がEMSMへログインして、EMSMシステムの「社員情報変更」をクリック
+②「社員情報変更」の画面にて、「社員新規登録」をクリック</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">③EMSMの「社員新規登録」画面にて、下記項目を入力して、「登録」ボタンをクリック
+・社員ID：自動採番でOK
+・社員氏名：テスト　太郎
+・メール：test@it-softtech.com
+・初期パスワード：12345
+・ステータス：在籍
+・権限：普通
 </t>
-    <rPh sb="34" eb="36">
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑦システム管理者がEMSへログインする、「パスワード変更」をクリック
+⑧EMSシステムのパスワード更新画面にて、更新後パスワードに54321”に入力して、「確認」をクリック
+</t>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="51" eb="53">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <rPh sb="56" eb="58">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="43" eb="44">
+    <rPh sb="58" eb="59">
       <t>ゴ</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="72" eb="74">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="65" eb="67">
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑨システム管理者がEMSMへログインする
+⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「更新」ボタンをクリック。
+・社員氏名：son
+・ステータス：在籍
+・タイプ：正社員
+・生年月日：20011022
+・年齢：22
+・入社年月日：20221010
+・社齢：1
+・郵便番号：2310988
+・住所：横浜市中区
+・電話番号：09098019181
+・権限：普通
+・メール：e004＠it-sofftech.com
+・パスワード：12345
+・個人番号：123456123456
+</t>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>コウシン</t>
     </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>シャインシメイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>セイシャイン</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="120" eb="123">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>シャレイ</t>
+    </rPh>
+    <rPh sb="140" eb="144">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="157" eb="160">
+      <t>ヨコハマシ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>ナカク</t>
+    </rPh>
+    <rPh sb="164" eb="168">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="228" eb="232">
+      <t>コジンバンゴウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t xml:space="preserve">④　No.2にて登録された社員がEMSにログインする
-⑤　EMSシステムの「社員情報更新」リンクをクリックする
-⑥　EMSの「社員情報更新」にて、下記情報を入力して、「登録」ボタンをクリック。
+⑤　EMSシステムの「個人情報管理」リンクをクリックする
+⑥　EMSの「社員情報更新」にて、下記情報を入力して、「更新」ボタンをクリック。
 ・氏名：nguyen 
 ・性別：男
 ・生年月日：2001/10/19
@@ -654,13 +742,13 @@
       <t>シャイン</t>
     </rPh>
     <rPh sb="38" eb="40">
-      <t>シャイン</t>
+      <t>コジン</t>
     </rPh>
     <rPh sb="40" eb="42">
       <t>ジョウホウ</t>
     </rPh>
     <rPh sb="42" eb="44">
-      <t>コウシン</t>
+      <t>カンリ</t>
     </rPh>
     <rPh sb="73" eb="75">
       <t>カキ</t>
@@ -672,154 +760,141 @@
       <t>ニュウリョク</t>
     </rPh>
     <rPh sb="84" eb="86">
-      <t>トウロク</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="98" eb="100">
       <t>シメイ</t>
     </rPh>
-    <rPh sb="110" eb="112">
+    <rPh sb="114" eb="116">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
       <t>セイベツ</t>
     </rPh>
-    <rPh sb="113" eb="114">
+    <rPh sb="122" eb="123">
       <t>オトコ</t>
     </rPh>
-    <rPh sb="116" eb="120">
+    <rPh sb="125" eb="129">
       <t>セイネンガッピ</t>
     </rPh>
-    <rPh sb="133" eb="135">
+    <rPh sb="142" eb="144">
       <t>ネンレイ</t>
     </rPh>
-    <rPh sb="140" eb="142">
+    <rPh sb="149" eb="151">
       <t>ニュウシャ</t>
     </rPh>
-    <rPh sb="142" eb="145">
+    <rPh sb="151" eb="154">
       <t>ネンガッピ</t>
     </rPh>
-    <rPh sb="156" eb="158">
+    <rPh sb="165" eb="167">
       <t>シャレイ</t>
     </rPh>
-    <rPh sb="162" eb="166">
+    <rPh sb="171" eb="175">
       <t>ユウビンバンゴウ</t>
     </rPh>
-    <rPh sb="176" eb="178">
+    <rPh sb="185" eb="187">
       <t>ジュウショ</t>
     </rPh>
-    <rPh sb="179" eb="182">
+    <rPh sb="188" eb="191">
       <t>サイタマケン</t>
     </rPh>
-    <rPh sb="182" eb="185">
+    <rPh sb="191" eb="194">
       <t>アサカシ</t>
     </rPh>
-    <rPh sb="187" eb="191">
+    <rPh sb="196" eb="200">
       <t>デンワバンゴウ</t>
     </rPh>
-    <rPh sb="205" eb="209">
+    <rPh sb="214" eb="218">
       <t>コジンバンゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">⑨システム管理者がEMSMへログインする
-⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「登録」ボタンをクリック。
-・社員氏名：nguyenn
-・ステータス：在籍
-・タイプ：正社員
-・生年月日：20011022
-・年齢：22
-・入社年月日：20221010
-・社齢：1
-・郵便番号：2310988
-・住所：横浜市中区
-・電話番号：09098019181
-・権限：普通
-・メール：e002＠it-sofftech.com
-・パスワード：12345
-・個人番号：123123123123
-</t>
+    <t>①登録成功
+②employeeテブールに”nguyen”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ギョウ</t>
+    </rPh>
     <rPh sb="31" eb="33">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑪　No.2にて登録された社員がEMSにログインする
+⑫　EMSシステムの「給料明細」リンクをクリックする
+⑬　給料明細画面にて、対象年月に"2024"年"07"月を選択して、「検索」をクリック</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="38" eb="40">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="67" eb="71">
-      <t>シャインシメイ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ザイセキ</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>セイシャイン</t>
-    </rPh>
-    <rPh sb="100" eb="104">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="124" eb="127">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>シャレイ</t>
-    </rPh>
-    <rPh sb="144" eb="148">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="161" eb="164">
-      <t>ヨコハマシ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ナカク</t>
-    </rPh>
-    <rPh sb="168" eb="172">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="232" eb="236">
-      <t>コジンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>　　社員情報機能総合テスト</t>
-    <rPh sb="2" eb="6">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウゴウ</t>
+    <rPh sb="65" eb="67">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1650,6 +1725,51 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,18 +1780,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,34 +1839,16 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1746,83 +1884,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2238,7 +2313,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -2296,7 +2371,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
@@ -2352,7 +2427,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
@@ -2372,7 +2447,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="50"/>
@@ -2630,7 +2705,7 @@
     <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -2745,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12:AJ12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -2827,755 +2902,755 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="98"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="99"/>
+      <c r="BF4" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="98"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="100"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="100"/>
+      <c r="BA5" s="100"/>
+      <c r="BB5" s="100"/>
+      <c r="BC5" s="100"/>
+      <c r="BD5" s="100"/>
+      <c r="BE5" s="100"/>
+      <c r="BF5" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG5" s="100"/>
+      <c r="BH5" s="102"/>
+      <c r="BI5" s="100"/>
+      <c r="BJ5" s="103"/>
+      <c r="BK5" s="103"/>
+      <c r="BL5" s="103"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="33" customFormat="1">
+      <c r="A7" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="106"/>
+    </row>
+    <row r="8" spans="1:65" ht="69.75" customHeight="1">
+      <c r="A8" s="93">
+        <v>1</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="125"/>
+      <c r="AI8" s="125"/>
+      <c r="AJ8" s="126"/>
+      <c r="AK8" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="81"/>
+      <c r="BJ8" s="79"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="81"/>
+    </row>
+    <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
+      <c r="A9" s="69">
+        <v>2</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97" t="s">
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="88"/>
+      <c r="BA9" s="88"/>
+      <c r="BB9" s="88"/>
+      <c r="BC9" s="88"/>
+      <c r="BD9" s="89"/>
+      <c r="BE9" s="71"/>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="78"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="77"/>
+      <c r="BL9" s="77"/>
+      <c r="BM9" s="78"/>
+    </row>
+    <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
+      <c r="A10" s="93">
+        <v>3</v>
+      </c>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="86"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="80"/>
+      <c r="BG10" s="80"/>
+      <c r="BH10" s="80"/>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="79"/>
+      <c r="BK10" s="80"/>
+      <c r="BL10" s="80"/>
+      <c r="BM10" s="81"/>
+    </row>
+    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A11" s="69">
+        <v>4</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="85"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="86"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="80"/>
+      <c r="BG11" s="80"/>
+      <c r="BH11" s="80"/>
+      <c r="BI11" s="81"/>
+      <c r="BJ11" s="79"/>
+      <c r="BK11" s="80"/>
+      <c r="BL11" s="80"/>
+      <c r="BM11" s="81"/>
+    </row>
+    <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
+      <c r="A12" s="93">
+        <v>5</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="85"/>
+      <c r="BB12" s="85"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="86"/>
+      <c r="BE12" s="82"/>
+      <c r="BF12" s="80"/>
+      <c r="BG12" s="80"/>
+      <c r="BH12" s="80"/>
+      <c r="BI12" s="81"/>
+      <c r="BJ12" s="79"/>
+      <c r="BK12" s="80"/>
+      <c r="BL12" s="80"/>
+      <c r="BM12" s="81"/>
+    </row>
+    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A13" s="69">
         <v>6</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="32"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="109"/>
-      <c r="BB5" s="109"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG5" s="109"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="79"/>
-    </row>
-    <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="80">
-        <v>1</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="73"/>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="74"/>
-    </row>
-    <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
-      <c r="A9" s="107">
-        <v>2</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="87" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="117"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="117"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="117"/>
-      <c r="AS9" s="117"/>
-      <c r="AT9" s="117"/>
-      <c r="AU9" s="117"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="117"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="125"/>
-      <c r="BA9" s="125"/>
-      <c r="BB9" s="125"/>
-      <c r="BC9" s="125"/>
-      <c r="BD9" s="126"/>
-      <c r="BE9" s="82"/>
-      <c r="BF9" s="117"/>
-      <c r="BG9" s="117"/>
-      <c r="BH9" s="117"/>
-      <c r="BI9" s="118"/>
-      <c r="BJ9" s="123"/>
-      <c r="BK9" s="117"/>
-      <c r="BL9" s="117"/>
-      <c r="BM9" s="118"/>
-    </row>
-    <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
-      <c r="A10" s="80">
-        <v>3</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="117"/>
-      <c r="AT10" s="117"/>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="117"/>
-      <c r="AW10" s="117"/>
-      <c r="AX10" s="118"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="74"/>
-    </row>
-    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A11" s="107">
-        <v>4</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="82" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="117"/>
-      <c r="AS11" s="117"/>
-      <c r="AT11" s="117"/>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="117"/>
-      <c r="AW11" s="117"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="75"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="74"/>
-    </row>
-    <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
-      <c r="A12" s="80">
-        <v>5</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="117"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="117"/>
-      <c r="AR12" s="117"/>
-      <c r="AS12" s="117"/>
-      <c r="AT12" s="117"/>
-      <c r="AU12" s="117"/>
-      <c r="AV12" s="117"/>
-      <c r="AW12" s="117"/>
-      <c r="AX12" s="118"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="75"/>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="74"/>
-    </row>
-    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A13" s="107">
-        <v>6</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="82" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="117"/>
-      <c r="AR13" s="117"/>
-      <c r="AS13" s="117"/>
-      <c r="AT13" s="117"/>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="117"/>
-      <c r="AW13" s="117"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="75"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="74"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="85"/>
+      <c r="BB13" s="85"/>
+      <c r="BC13" s="85"/>
+      <c r="BD13" s="86"/>
+      <c r="BE13" s="82"/>
+      <c r="BF13" s="80"/>
+      <c r="BG13" s="80"/>
+      <c r="BH13" s="80"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="79"/>
+      <c r="BK13" s="80"/>
+      <c r="BL13" s="80"/>
+      <c r="BM13" s="81"/>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="34"/>
@@ -4182,11 +4257,58 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="BJ13:BM13"/>
     <mergeCell ref="BE13:BI13"/>
     <mergeCell ref="S9:AJ9"/>
@@ -4203,58 +4325,11 @@
     <mergeCell ref="AY13:BD13"/>
     <mergeCell ref="AY9:BD9"/>
     <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4267,7 +4342,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -4291,108 +4366,108 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="44" customFormat="1" ht="13.2">
       <c r="A2" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="H2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="K2" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="L2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="M2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="P2" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="Q2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="R2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="S2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="T2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="U2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="V2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="W2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="X2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="Y2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="Z2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="AA2" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AB2" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AC2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AD2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="43" t="s">
+      <c r="AE2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AF2" s="43" t="s">
         <v>66</v>
-      </c>
-      <c r="AE2" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" s="43" t="s">
-        <v>68</v>
       </c>
       <c r="AG2" s="43" t="s">
         <v>20</v>
@@ -4403,10 +4478,10 @@
     </row>
     <row r="3" spans="1:34" s="44" customFormat="1" ht="13.2">
       <c r="A3" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="45">
         <v>202407</v>
@@ -4442,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O3" s="46">
         <v>18300</v>
@@ -4493,7 +4568,7 @@
         <v>237608</v>
       </c>
       <c r="AE3" s="45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF3" s="47" t="s">
         <v>24</v>

--- a/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032D701B-30F1-47E9-8AB3-E3A28728B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE668928-02AE-4CAD-88F1-02A492706146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>No</t>
   </si>
@@ -898,6 +898,272 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>CT001</t>
+  </si>
+  <si>
+    <t>轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>20210131</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240401</t>
+  </si>
+  <si>
+    <t>CT002</t>
+  </si>
+  <si>
+    <t>豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蝨滄＝蠢崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>ソン</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19990902</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2310851</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>07012344321</t>
+  </si>
+  <si>
+    <t>e001@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240530</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>2001-10-22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>e002@it-softtech.com</t>
+  </si>
+  <si>
+    <t>nguyen1</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
+  </si>
+  <si>
+    <t>20011022</t>
+  </si>
+  <si>
+    <t>20221010</t>
+  </si>
+  <si>
+    <t>2310988</t>
+  </si>
+  <si>
+    <t>09098019181</t>
+  </si>
+  <si>
+    <t>e004@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240822</t>
+  </si>
+  <si>
+    <t>123456123456</t>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -906,7 +1172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1345,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1110,7 +1401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1503,6 +1794,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1517,7 +1823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1725,61 +2031,172 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1788,116 +2205,17 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2820,7 +3138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
@@ -2902,755 +3220,755 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118" t="s">
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="99"/>
-      <c r="AK4" s="99"/>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="95" t="s">
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="101"/>
+      <c r="AT4" s="101"/>
+      <c r="AU4" s="101"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="98"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="99"/>
-      <c r="BF4" s="95" t="s">
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="105"/>
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="101"/>
+      <c r="BB4" s="101"/>
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="98"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="105"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="101"/>
+      <c r="BK4" s="101"/>
+      <c r="BL4" s="101"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="101"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="101" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="109"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="101" t="s">
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="100"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="100"/>
-      <c r="BA5" s="100"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="100"/>
-      <c r="BD5" s="100"/>
-      <c r="BE5" s="100"/>
-      <c r="BF5" s="101" t="s">
+      <c r="AX5" s="109"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="109"/>
+      <c r="BD5" s="109"/>
+      <c r="BE5" s="109"/>
+      <c r="BF5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="BG5" s="100"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="100"/>
-      <c r="BJ5" s="103"/>
-      <c r="BK5" s="103"/>
-      <c r="BL5" s="103"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="111"/>
+      <c r="BI5" s="109"/>
+      <c r="BJ5" s="112"/>
+      <c r="BK5" s="112"/>
+      <c r="BL5" s="112"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="104" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="104" t="s">
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="104" t="s">
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="104" t="s">
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="79"/>
+      <c r="BE7" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="104" t="s">
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="106"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="79"/>
     </row>
     <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="93">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="71" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="124" t="s">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="74" t="s">
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="125"/>
-      <c r="AI8" s="125"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="82" t="s">
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="80"/>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="80"/>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="85"/>
-      <c r="BA8" s="85"/>
-      <c r="BB8" s="85"/>
-      <c r="BC8" s="85"/>
-      <c r="BD8" s="86"/>
-      <c r="BE8" s="82"/>
-      <c r="BF8" s="80"/>
-      <c r="BG8" s="80"/>
-      <c r="BH8" s="80"/>
-      <c r="BI8" s="81"/>
-      <c r="BJ8" s="79"/>
-      <c r="BK8" s="80"/>
-      <c r="BL8" s="80"/>
-      <c r="BM8" s="81"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="73"/>
+      <c r="BL8" s="73"/>
+      <c r="BM8" s="74"/>
     </row>
     <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
-      <c r="A9" s="69">
+      <c r="A9" s="107">
         <v>2</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71" t="s">
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="92" t="s">
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="74" t="s">
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="71" t="s">
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="122"/>
+      <c r="AK9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="88"/>
-      <c r="BB9" s="88"/>
-      <c r="BC9" s="88"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="71"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="78"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="77"/>
-      <c r="BL9" s="77"/>
-      <c r="BM9" s="78"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="117"/>
+      <c r="AS9" s="117"/>
+      <c r="AT9" s="117"/>
+      <c r="AU9" s="117"/>
+      <c r="AV9" s="117"/>
+      <c r="AW9" s="117"/>
+      <c r="AX9" s="118"/>
+      <c r="AY9" s="124"/>
+      <c r="AZ9" s="125"/>
+      <c r="BA9" s="125"/>
+      <c r="BB9" s="125"/>
+      <c r="BC9" s="125"/>
+      <c r="BD9" s="126"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="117"/>
+      <c r="BG9" s="117"/>
+      <c r="BH9" s="117"/>
+      <c r="BI9" s="118"/>
+      <c r="BJ9" s="123"/>
+      <c r="BK9" s="117"/>
+      <c r="BL9" s="117"/>
+      <c r="BM9" s="118"/>
     </row>
     <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
-      <c r="A10" s="93">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="71" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="92" t="s">
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74" t="s">
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="71" t="s">
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="121"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="86"/>
-      <c r="BE10" s="82"/>
-      <c r="BF10" s="80"/>
-      <c r="BG10" s="80"/>
-      <c r="BH10" s="80"/>
-      <c r="BI10" s="81"/>
-      <c r="BJ10" s="79"/>
-      <c r="BK10" s="80"/>
-      <c r="BL10" s="80"/>
-      <c r="BM10" s="81"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="117"/>
+      <c r="AS10" s="117"/>
+      <c r="AT10" s="117"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="117"/>
+      <c r="AW10" s="117"/>
+      <c r="AX10" s="118"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="72"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="74"/>
     </row>
     <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A11" s="69">
+      <c r="A11" s="107">
         <v>4</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="74" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="71" t="s">
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="122"/>
+      <c r="AK11" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="85"/>
-      <c r="BA11" s="85"/>
-      <c r="BB11" s="85"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="86"/>
-      <c r="BE11" s="82"/>
-      <c r="BF11" s="80"/>
-      <c r="BG11" s="80"/>
-      <c r="BH11" s="80"/>
-      <c r="BI11" s="81"/>
-      <c r="BJ11" s="79"/>
-      <c r="BK11" s="80"/>
-      <c r="BL11" s="80"/>
-      <c r="BM11" s="81"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="117"/>
+      <c r="AO11" s="117"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="117"/>
+      <c r="AR11" s="117"/>
+      <c r="AS11" s="117"/>
+      <c r="AT11" s="117"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="117"/>
+      <c r="AW11" s="117"/>
+      <c r="AX11" s="118"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="70"/>
+      <c r="BB11" s="70"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="72"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="73"/>
+      <c r="BM11" s="74"/>
     </row>
     <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
-      <c r="A12" s="93">
+      <c r="A12" s="80">
         <v>5</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="71" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="74" t="s">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="71" t="s">
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="85"/>
-      <c r="BA12" s="85"/>
-      <c r="BB12" s="85"/>
-      <c r="BC12" s="85"/>
-      <c r="BD12" s="86"/>
-      <c r="BE12" s="82"/>
-      <c r="BF12" s="80"/>
-      <c r="BG12" s="80"/>
-      <c r="BH12" s="80"/>
-      <c r="BI12" s="81"/>
-      <c r="BJ12" s="79"/>
-      <c r="BK12" s="80"/>
-      <c r="BL12" s="80"/>
-      <c r="BM12" s="81"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="117"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="117"/>
+      <c r="AQ12" s="117"/>
+      <c r="AR12" s="117"/>
+      <c r="AS12" s="117"/>
+      <c r="AT12" s="117"/>
+      <c r="AU12" s="117"/>
+      <c r="AV12" s="117"/>
+      <c r="AW12" s="117"/>
+      <c r="AX12" s="118"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="71"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="74"/>
     </row>
     <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A13" s="69">
+      <c r="A13" s="107">
         <v>6</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="71" t="s">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="74" t="s">
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="71" t="s">
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="122"/>
+      <c r="AK13" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="85"/>
-      <c r="BA13" s="85"/>
-      <c r="BB13" s="85"/>
-      <c r="BC13" s="85"/>
-      <c r="BD13" s="86"/>
-      <c r="BE13" s="82"/>
-      <c r="BF13" s="80"/>
-      <c r="BG13" s="80"/>
-      <c r="BH13" s="80"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="79"/>
-      <c r="BK13" s="80"/>
-      <c r="BL13" s="80"/>
-      <c r="BM13" s="81"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="117"/>
+      <c r="AO13" s="117"/>
+      <c r="AP13" s="117"/>
+      <c r="AQ13" s="117"/>
+      <c r="AR13" s="117"/>
+      <c r="AS13" s="117"/>
+      <c r="AT13" s="117"/>
+      <c r="AU13" s="117"/>
+      <c r="AV13" s="117"/>
+      <c r="AW13" s="117"/>
+      <c r="AX13" s="118"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="70"/>
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="71"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="73"/>
+      <c r="BM13" s="74"/>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="34"/>
@@ -4257,24 +4575,45 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -4291,45 +4630,24 @@
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="U5:AV5"/>
     <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="BE13:BI13"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4339,10 +4657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -4580,6 +4898,553 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="36">
+      <c r="B6" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="127" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="127" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="18">
+      <c r="B7" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="129">
+        <v>600000</v>
+      </c>
+      <c r="G7" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="129">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="129">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="T7" s="128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="18">
+      <c r="B8" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="129">
+        <v>600000</v>
+      </c>
+      <c r="G8" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="129">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="129">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="S8" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" s="128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="18">
+      <c r="B9" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="129">
+        <v>600000</v>
+      </c>
+      <c r="G9" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="129">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="129">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="S9" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="T9" s="128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="36">
+      <c r="B12" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="127" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="127" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="127" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="N12" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" s="127" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="T12" s="127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="18">
+      <c r="B13" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="128" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="18">
+      <c r="B14" s="128" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="128" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q14" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="R14" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="S14" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="18">
+      <c r="B15" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="128" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="128" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q15" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="128" t="s">
+        <v>153</v>
+      </c>
+      <c r="S15" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="18">
+      <c r="B16" s="128" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="128" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="N16" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="128" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="128" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
+++ b/DOC/総合テスト/総合試験項目仕様書_社員機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE668928-02AE-4CAD-88F1-02A492706146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12981CB0-8298-4D2A-B56E-3994159C868A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -192,19 +192,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>管理者からの情報更新</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>社員の自ら情報更新</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -411,18 +398,7 @@
     <t>salaryInfo</t>
   </si>
   <si>
-    <t>登録されたID</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>テストケース</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.6</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -595,128 +571,6 @@
     </rPh>
     <rPh sb="124" eb="126">
       <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑦システム管理者がEMSへログインする、「パスワード変更」をクリック
-⑧EMSシステムのパスワード更新画面にて、更新後パスワードに54321”に入力して、「確認」をクリック
-</t>
-    <rPh sb="26" eb="28">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">⑨システム管理者がEMSMへログインする
-⑩EMSMシステムの社員情報更新画面を開き、下記情報を入力し、「更新」ボタンをクリック。
-・社員氏名：son
-・ステータス：在籍
-・タイプ：正社員
-・生年月日：20011022
-・年齢：22
-・入社年月日：20221010
-・社齢：1
-・郵便番号：2310988
-・住所：横浜市中区
-・電話番号：09098019181
-・権限：普通
-・メール：e004＠it-sofftech.com
-・パスワード：12345
-・個人番号：123456123456
-</t>
-    <rPh sb="31" eb="33">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="67" eb="71">
-      <t>シャインシメイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ザイセキ</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>セイシャイン</t>
-    </rPh>
-    <rPh sb="96" eb="100">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ニュウシャ</t>
-    </rPh>
-    <rPh sb="120" eb="123">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>シャレイ</t>
-    </rPh>
-    <rPh sb="140" eb="144">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="157" eb="160">
-      <t>ヨコハマシ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>ナカク</t>
-    </rPh>
-    <rPh sb="164" eb="168">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="228" eb="232">
-      <t>コジンバンゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -899,269 +753,353 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>contractID</t>
-  </si>
-  <si>
-    <t>contractName</t>
-  </si>
-  <si>
-    <t>companyID</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>payOff</t>
-  </si>
-  <si>
-    <t>lowerTime</t>
-  </si>
-  <si>
-    <t>lowerPrice</t>
-  </si>
-  <si>
-    <t>upperTime</t>
-  </si>
-  <si>
-    <t>upperPrice</t>
-  </si>
-  <si>
-    <t>contractBeginDate</t>
-  </si>
-  <si>
-    <t>contractEndDate</t>
-  </si>
-  <si>
-    <t>paymentTerm</t>
-  </si>
-  <si>
-    <t>postNeed</t>
-  </si>
-  <si>
-    <t>timeReportPath</t>
-  </si>
-  <si>
-    <t>invoice</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>CT001</t>
-  </si>
-  <si>
-    <t>轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>E00001</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>20210101</t>
-  </si>
-  <si>
-    <t>20210131</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>D:/tmp/work</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 轣ｫ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>20240401</t>
-  </si>
-  <si>
-    <t>CT002</t>
-  </si>
-  <si>
-    <t>豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>E00002</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 豌ｴ驕∝ｿ崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>CT003</t>
-  </si>
-  <si>
-    <t>E00003</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 蝨滄＝蠢崎｡馴幕逋ｺ謾ｯ謠ｴ</t>
-  </si>
-  <si>
-    <t>contract</t>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
+  </si>
+  <si>
+    <t>20011022</t>
+  </si>
+  <si>
+    <t>20221010</t>
+  </si>
+  <si>
+    <t>2310988</t>
+  </si>
+  <si>
+    <t>09098019181</t>
+  </si>
+  <si>
+    <t>e004@it-softtech.com</t>
+  </si>
+  <si>
+    <t>123456123456</t>
+  </si>
+  <si>
+    <t>employee</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>employeeName</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>epType</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>joinedDate</t>
-  </si>
-  <si>
-    <t>joinedTime</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>mailAdress</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>personNumber</t>
-  </si>
-  <si>
-    <t>ソン</t>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19990902</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20190101</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2310851</t>
-  </si>
-  <si>
-    <t>横浜市中区</t>
-  </si>
-  <si>
-    <t>07012344321</t>
-  </si>
-  <si>
-    <t>e001@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240530</t>
-  </si>
-  <si>
-    <t>123131231231</t>
+    <t xml:space="preserve">⑦No.2にて登録された(test@it-softtech.com)でEMSへログインする、「パスワード変更」をクリック
+⑧EMSシステムのパスワード更新画面にて、更新後パスワードに54321”に入力して、「確認」をクリック
+</t>
+    <rPh sb="52" eb="54">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員からの情報更新</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑨社員(e002@it-softtech.com）がEMSMへログインして、「社員情報変更」をクリック
+⑩更新したい社員（E00004）に選択して、「検索」をクリックして、社員情報の行の「更新」をクリックEMSMシステムの社員情報更新画面を開き、下記情報を入力し、「更新」ボタンをクリック。
+・社員氏名：son
+・ステータス：在籍
+・タイプ：正社員
+・生年月日：20011022
+・年齢：22
+・入社年月日：20221010
+・社齢：1
+・郵便番号：2310988
+・住所：横浜市中区
+・電話番号：09098019181
+・権限：普通
+・メール：e004＠it-sofftech.com
+・パスワード：12345
+・個人番号：123456123456
+</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="147" eb="151">
+      <t>シャインシメイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="171" eb="174">
+      <t>セイシャイン</t>
+    </rPh>
+    <rPh sb="176" eb="180">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ニュウシャ</t>
+    </rPh>
+    <rPh sb="200" eb="203">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>シャレイ</t>
+    </rPh>
+    <rPh sb="220" eb="224">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="237" eb="240">
+      <t>ヨコハマシ</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ナカク</t>
+    </rPh>
+    <rPh sb="244" eb="248">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="308" eb="312">
+      <t>コジンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>202407</t>
+  </si>
+  <si>
+    <t>20240820</t>
+  </si>
+  <si>
+    <t>20240829</t>
+  </si>
+  <si>
+    <t>No.6</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>nguyen</t>
   </si>
   <si>
-    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
-  </si>
-  <si>
-    <t>2001-10-22</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2310859</t>
-  </si>
-  <si>
-    <t>07012344322</t>
-  </si>
-  <si>
-    <t>e002@it-softtech.com</t>
-  </si>
-  <si>
-    <t>nguyen1</t>
-  </si>
-  <si>
-    <t>e003@it-softtech.com</t>
-  </si>
-  <si>
-    <t>E00004</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
-  </si>
-  <si>
-    <t>20011022</t>
-  </si>
-  <si>
-    <t>20221010</t>
-  </si>
-  <si>
-    <t>2310988</t>
-  </si>
-  <si>
-    <t>09098019181</t>
-  </si>
-  <si>
-    <t>e004@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240822</t>
-  </si>
-  <si>
-    <t>123456123456</t>
-  </si>
-  <si>
-    <t>employee</t>
+    <t>テスト　太郎</t>
+  </si>
+  <si>
+    <t>test@it-softtech.com</t>
+  </si>
+  <si>
+    <t>No.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeテブールに”テスト　太郎”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>2001-10-19</t>
+  </si>
+  <si>
+    <t>2310861</t>
+  </si>
+  <si>
+    <t>埼玉県朝霞市</t>
+  </si>
+  <si>
+    <t>08099989988</t>
+  </si>
+  <si>
+    <t>202400829</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>20240829</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>123123123123</t>
+  </si>
+  <si>
+    <t>No.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeテーブル更新する前のデータ：</t>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>01cfcd4f6b8770febfb40cb906715822</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>employeeテブールに”nguyen”の行が更新される。更新後値は左記更新画面に入力した値と同じ</t>
+  </si>
+  <si>
+    <t>No.5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フン</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1172,7 +1110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,6 +1146,7 @@
     <font>
       <sz val="10"/>
       <name val="Klee One SemiBold"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1331,21 +1270,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="22"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1369,6 +1293,45 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klee One SemiBold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7F878F"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1823,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1953,24 +1916,37 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2031,6 +2007,48 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,19 +2058,46 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2064,34 +2109,16 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2127,95 +2154,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2613,16 +2565,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2630,20 +2582,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
+      <c r="G16" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2668,58 +2620,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="66"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="62"/>
+      <c r="G19" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="65"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2744,58 +2696,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="68"/>
+      <c r="G22" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="75"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
+      <c r="G23" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="58"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="61"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -3023,7 +2975,7 @@
     <row r="2" spans="2:5">
       <c r="B2" s="17"/>
       <c r="C2" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -3138,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AU20" sqref="AU20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
@@ -3220,755 +3172,795 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="90"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="91"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="91"/>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95" t="s">
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102"/>
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="125"/>
+      <c r="AW4" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="101">
+        <v>45521</v>
+      </c>
+      <c r="BA4" s="102"/>
+      <c r="BB4" s="102"/>
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ4" s="102"/>
+      <c r="BK4" s="102"/>
+      <c r="BL4" s="102"/>
+      <c r="BM4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
+      <c r="A5" s="104"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX5" s="103"/>
+      <c r="AY5" s="105"/>
+      <c r="AZ5" s="103"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="103"/>
+      <c r="BC5" s="103"/>
+      <c r="BD5" s="103"/>
+      <c r="BE5" s="103"/>
+      <c r="BF5" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG5" s="103"/>
+      <c r="BH5" s="105"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="106"/>
+      <c r="BK5" s="106"/>
+      <c r="BL5" s="106"/>
+      <c r="BM5" s="25"/>
+    </row>
+    <row r="7" spans="1:65" s="33" customFormat="1">
+      <c r="A7" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="108"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="109"/>
+      <c r="AK7" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="108"/>
+      <c r="AM7" s="108"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="108"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="108"/>
+      <c r="AT7" s="108"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="109"/>
+      <c r="AY7" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="108"/>
+      <c r="BB7" s="108"/>
+      <c r="BC7" s="108"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="107" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="108"/>
+      <c r="BH7" s="108"/>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK7" s="108"/>
+      <c r="BL7" s="108"/>
+      <c r="BM7" s="109"/>
+    </row>
+    <row r="8" spans="1:65" ht="69.75" customHeight="1">
+      <c r="A8" s="96">
+        <v>1</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="128"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="128"/>
+      <c r="AD8" s="128"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="128"/>
+      <c r="AG8" s="128"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="128"/>
+      <c r="AJ8" s="129"/>
+      <c r="AK8" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="87"/>
+      <c r="BH8" s="87"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK8" s="87"/>
+      <c r="BL8" s="87"/>
+      <c r="BM8" s="88"/>
+    </row>
+    <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
+      <c r="A9" s="76">
+        <v>2</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97" t="s">
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="92"/>
+      <c r="BE9" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF9" s="87"/>
+      <c r="BG9" s="87"/>
+      <c r="BH9" s="87"/>
+      <c r="BI9" s="88"/>
+      <c r="BJ9" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK9" s="87"/>
+      <c r="BL9" s="87"/>
+      <c r="BM9" s="88"/>
+    </row>
+    <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
+      <c r="A10" s="96">
+        <v>3</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ10" s="91"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="91"/>
+      <c r="BC10" s="91"/>
+      <c r="BD10" s="92"/>
+      <c r="BE10" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF10" s="87"/>
+      <c r="BG10" s="87"/>
+      <c r="BH10" s="87"/>
+      <c r="BI10" s="88"/>
+      <c r="BJ10" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK10" s="87"/>
+      <c r="BL10" s="87"/>
+      <c r="BM10" s="88"/>
+    </row>
+    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A11" s="76">
+        <v>4</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ11" s="91"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="91"/>
+      <c r="BC11" s="91"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF11" s="87"/>
+      <c r="BG11" s="87"/>
+      <c r="BH11" s="87"/>
+      <c r="BI11" s="88"/>
+      <c r="BJ11" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK11" s="87"/>
+      <c r="BL11" s="87"/>
+      <c r="BM11" s="88"/>
+    </row>
+    <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
+      <c r="A12" s="96">
+        <v>5</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ12" s="91"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="91"/>
+      <c r="BC12" s="91"/>
+      <c r="BD12" s="92"/>
+      <c r="BE12" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF12" s="87"/>
+      <c r="BG12" s="87"/>
+      <c r="BH12" s="87"/>
+      <c r="BI12" s="88"/>
+      <c r="BJ12" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK12" s="87"/>
+      <c r="BL12" s="87"/>
+      <c r="BM12" s="88"/>
+    </row>
+    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
+      <c r="A13" s="76">
         <v>6</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="102"/>
-      <c r="AW4" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="105"/>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="101"/>
-      <c r="BM4" s="32"/>
-    </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="109"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="116"/>
-      <c r="AW5" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX5" s="109"/>
-      <c r="AY5" s="111"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="109"/>
-      <c r="BB5" s="109"/>
-      <c r="BC5" s="109"/>
-      <c r="BD5" s="109"/>
-      <c r="BE5" s="109"/>
-      <c r="BF5" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG5" s="109"/>
-      <c r="BH5" s="111"/>
-      <c r="BI5" s="109"/>
-      <c r="BJ5" s="112"/>
-      <c r="BK5" s="112"/>
-      <c r="BL5" s="112"/>
-      <c r="BM5" s="25"/>
-    </row>
-    <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="79"/>
-    </row>
-    <row r="8" spans="1:65" ht="69.75" customHeight="1">
-      <c r="A8" s="80">
-        <v>1</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="71"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="73"/>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="74"/>
-    </row>
-    <row r="9" spans="1:65" s="42" customFormat="1" ht="147" customHeight="1">
-      <c r="A9" s="107">
-        <v>2</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="87" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
-      <c r="AJ9" s="122"/>
-      <c r="AK9" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="117"/>
-      <c r="AN9" s="117"/>
-      <c r="AO9" s="117"/>
-      <c r="AP9" s="117"/>
-      <c r="AQ9" s="117"/>
-      <c r="AR9" s="117"/>
-      <c r="AS9" s="117"/>
-      <c r="AT9" s="117"/>
-      <c r="AU9" s="117"/>
-      <c r="AV9" s="117"/>
-      <c r="AW9" s="117"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="124"/>
-      <c r="AZ9" s="125"/>
-      <c r="BA9" s="125"/>
-      <c r="BB9" s="125"/>
-      <c r="BC9" s="125"/>
-      <c r="BD9" s="126"/>
-      <c r="BE9" s="82"/>
-      <c r="BF9" s="117"/>
-      <c r="BG9" s="117"/>
-      <c r="BH9" s="117"/>
-      <c r="BI9" s="118"/>
-      <c r="BJ9" s="123"/>
-      <c r="BK9" s="117"/>
-      <c r="BL9" s="117"/>
-      <c r="BM9" s="118"/>
-    </row>
-    <row r="10" spans="1:65" s="40" customFormat="1" ht="184.2" customHeight="1">
-      <c r="A10" s="80">
-        <v>3</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="117"/>
-      <c r="AT10" s="117"/>
-      <c r="AU10" s="117"/>
-      <c r="AV10" s="117"/>
-      <c r="AW10" s="117"/>
-      <c r="AX10" s="118"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="72"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="74"/>
-    </row>
-    <row r="11" spans="1:65" s="40" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A11" s="107">
-        <v>4</v>
-      </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="117"/>
-      <c r="AO11" s="117"/>
-      <c r="AP11" s="117"/>
-      <c r="AQ11" s="117"/>
-      <c r="AR11" s="117"/>
-      <c r="AS11" s="117"/>
-      <c r="AT11" s="117"/>
-      <c r="AU11" s="117"/>
-      <c r="AV11" s="117"/>
-      <c r="AW11" s="117"/>
-      <c r="AX11" s="118"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="72"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="75"/>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="74"/>
-    </row>
-    <row r="12" spans="1:65" s="40" customFormat="1" ht="248.4" customHeight="1">
-      <c r="A12" s="80">
-        <v>5</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="121"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="117"/>
-      <c r="AO12" s="117"/>
-      <c r="AP12" s="117"/>
-      <c r="AQ12" s="117"/>
-      <c r="AR12" s="117"/>
-      <c r="AS12" s="117"/>
-      <c r="AT12" s="117"/>
-      <c r="AU12" s="117"/>
-      <c r="AV12" s="117"/>
-      <c r="AW12" s="117"/>
-      <c r="AX12" s="118"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="75"/>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="74"/>
-    </row>
-    <row r="13" spans="1:65" s="40" customFormat="1" ht="100.5" customHeight="1">
-      <c r="A13" s="107">
-        <v>6</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="122"/>
-      <c r="AK13" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="117"/>
-      <c r="AO13" s="117"/>
-      <c r="AP13" s="117"/>
-      <c r="AQ13" s="117"/>
-      <c r="AR13" s="117"/>
-      <c r="AS13" s="117"/>
-      <c r="AT13" s="117"/>
-      <c r="AU13" s="117"/>
-      <c r="AV13" s="117"/>
-      <c r="AW13" s="117"/>
-      <c r="AX13" s="118"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="75"/>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="74"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF13" s="87"/>
+      <c r="BG13" s="87"/>
+      <c r="BH13" s="87"/>
+      <c r="BI13" s="88"/>
+      <c r="BJ13" s="86">
+        <v>45533</v>
+      </c>
+      <c r="BK13" s="87"/>
+      <c r="BL13" s="87"/>
+      <c r="BM13" s="88"/>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="34"/>
@@ -4575,11 +4567,58 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="BJ13:BM13"/>
     <mergeCell ref="BE13:BI13"/>
     <mergeCell ref="S9:AJ9"/>
@@ -4596,58 +4635,11 @@
     <mergeCell ref="AY13:BD13"/>
     <mergeCell ref="AY9:BD9"/>
     <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4657,15 +4649,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH16"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" style="48" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="44" customWidth="1"/>
     <col min="2" max="2" width="14.59765625" style="36" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="36" customWidth="1"/>
     <col min="4" max="4" width="9.59765625" style="36"/>
@@ -4684,765 +4676,861 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="43" customFormat="1" ht="54">
+      <c r="A2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="D2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="18">
+      <c r="A3" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="47">
+        <v>300000</v>
+      </c>
+      <c r="F3" s="47">
+        <v>178</v>
+      </c>
+      <c r="G3" s="47">
+        <v>10</v>
+      </c>
+      <c r="H3" s="47">
+        <v>267000</v>
+      </c>
+      <c r="I3" s="47">
+        <v>100</v>
+      </c>
+      <c r="J3" s="47">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="47">
+        <v>200</v>
+      </c>
+      <c r="L3" s="47">
+        <v>200</v>
+      </c>
+      <c r="M3" s="47">
+        <v>10</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" s="47">
+        <v>18300</v>
+      </c>
+      <c r="P3" s="47">
+        <v>18300</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>11450</v>
+      </c>
+      <c r="R3" s="47">
+        <v>11450</v>
+      </c>
+      <c r="S3" s="47">
+        <v>15</v>
+      </c>
+      <c r="T3" s="47">
+        <v>618</v>
+      </c>
+      <c r="U3" s="47">
+        <v>1236</v>
+      </c>
+      <c r="V3" s="47">
+        <v>4</v>
+      </c>
+      <c r="W3" s="47">
+        <v>618</v>
+      </c>
+      <c r="X3" s="47">
+        <v>8200</v>
+      </c>
+      <c r="Y3" s="47">
+        <v>2020</v>
+      </c>
+      <c r="Z3" s="47">
+        <v>2000</v>
+      </c>
+      <c r="AA3" s="47">
+        <v>500</v>
+      </c>
+      <c r="AB3" s="47">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="47">
+        <v>503445</v>
+      </c>
+      <c r="AD3" s="47">
+        <v>237608</v>
+      </c>
+      <c r="AE3" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH3" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="36">
+      <c r="A5" s="43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="44" customFormat="1" ht="13.2">
-      <c r="A2" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="X2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB2" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="43" t="s">
+      <c r="C5" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="R5" s="45" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="44" customFormat="1" ht="13.2">
-      <c r="A3" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="45">
-        <v>202407</v>
-      </c>
-      <c r="D3" s="45">
-        <v>20240820</v>
-      </c>
-      <c r="E3" s="46">
-        <v>206000</v>
-      </c>
-      <c r="F3" s="46">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46">
-        <v>0</v>
-      </c>
-      <c r="H3" s="46">
-        <v>0</v>
-      </c>
-      <c r="I3" s="46">
-        <v>0</v>
-      </c>
-      <c r="J3" s="46">
-        <v>0</v>
-      </c>
-      <c r="K3" s="46">
-        <v>0</v>
-      </c>
-      <c r="L3" s="46">
-        <v>0</v>
-      </c>
-      <c r="M3" s="46">
-        <v>0</v>
-      </c>
-      <c r="N3" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="46">
-        <v>18300</v>
-      </c>
-      <c r="P3" s="46">
-        <v>18300</v>
-      </c>
-      <c r="Q3" s="46">
-        <v>11450</v>
-      </c>
-      <c r="R3" s="46">
-        <v>11450</v>
-      </c>
-      <c r="S3" s="46">
-        <v>0</v>
-      </c>
-      <c r="T3" s="46">
-        <v>618</v>
-      </c>
-      <c r="U3" s="46">
-        <v>1236</v>
-      </c>
-      <c r="V3" s="46">
-        <v>4</v>
-      </c>
-      <c r="W3" s="46">
-        <v>618</v>
-      </c>
-      <c r="X3" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="46">
-        <v>175632</v>
-      </c>
-      <c r="AD3" s="46">
-        <v>237608</v>
-      </c>
-      <c r="AE3" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" s="47" t="s">
+      <c r="S5" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="U5" s="51"/>
+    </row>
+    <row r="6" spans="1:34" ht="18">
+      <c r="A6" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="G6" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="I6" s="48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="41" t="s">
+      <c r="J6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="51"/>
+    </row>
+    <row r="9" spans="1:34" s="51" customFormat="1" ht="36">
+      <c r="A9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="51" customFormat="1" ht="18">
+      <c r="A10" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="52" customFormat="1" ht="17.399999999999999"/>
+    <row r="12" spans="1:34" s="52" customFormat="1" ht="17.399999999999999">
+      <c r="B12" s="52" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="52" customFormat="1" ht="36">
+      <c r="B13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="52" customFormat="1" ht="18">
+      <c r="A14" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="36">
-      <c r="B6" s="127" t="s">
+      <c r="M14" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="53">
+        <v>1</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="51" customFormat="1" ht="18">
+      <c r="A17" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="52" customFormat="1" ht="31.8" customHeight="1">
+      <c r="B18" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="E18" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="G18" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="52" customFormat="1" ht="18">
+      <c r="A19" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="R19" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="S19" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="T19" s="49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="51" customFormat="1" ht="18"/>
+    <row r="21" spans="1:20" s="51" customFormat="1" ht="18"/>
+    <row r="22" spans="1:20" s="51" customFormat="1" ht="18"/>
+    <row r="23" spans="1:20" s="51" customFormat="1" ht="18">
+      <c r="B23" s="51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="51" customFormat="1" ht="36">
+      <c r="B24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="C24" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="H24" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="I24" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="J24" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="127" t="s">
+      <c r="K24" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="127" t="s">
+      <c r="L24" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="127" t="s">
+      <c r="M24" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="127" t="s">
+      <c r="N24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="127" t="s">
+      <c r="O24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="127" t="s">
+      <c r="P24" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="127" t="s">
+      <c r="Q24" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="127" t="s">
+      <c r="T24" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="Q6" s="127" t="s">
+    </row>
+    <row r="25" spans="1:20" s="51" customFormat="1" ht="18">
+      <c r="A25" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="127" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="18">
-      <c r="B7" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="128" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="129">
-        <v>600000</v>
-      </c>
-      <c r="G7" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="129">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="128" t="s">
+      <c r="N25" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="129">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="128" t="s">
+      <c r="O25" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="128" t="s">
+      <c r="Q25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="S25" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="T25" s="49" t="s">
         <v>111</v>
-      </c>
-      <c r="N7" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="O7" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="18">
-      <c r="B8" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="129">
-        <v>600000</v>
-      </c>
-      <c r="G8" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="129">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="129">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="128" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="128" t="s">
-        <v>121</v>
-      </c>
-      <c r="R8" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="S8" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="T8" s="128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="18">
-      <c r="B9" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="129">
-        <v>600000</v>
-      </c>
-      <c r="G9" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="129">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="128" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="129">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="128" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="128" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="T9" s="128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="36">
-      <c r="B12" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="127" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="127" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="127" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="127" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" s="127" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" s="127" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="127" t="s">
-        <v>138</v>
-      </c>
-      <c r="P12" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="127" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="127" t="s">
-        <v>140</v>
-      </c>
-      <c r="T12" s="127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="18">
-      <c r="B13" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="128" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="128" t="s">
-        <v>145</v>
-      </c>
-      <c r="I13" s="128" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="S13" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="18">
-      <c r="B14" s="128" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="N14" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="O14" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" s="128" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="S14" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="18">
-      <c r="B15" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="128" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="128" t="s">
-        <v>159</v>
-      </c>
-      <c r="M15" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="N15" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="O15" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P15" s="128" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q15" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="R15" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="S15" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="18">
-      <c r="B16" s="128" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="128" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="128" t="s">
-        <v>158</v>
-      </c>
-      <c r="J16" s="128" t="s">
-        <v>168</v>
-      </c>
-      <c r="K16" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="L16" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="M16" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="N16" s="128" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="128" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q16" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="R16" s="128" t="s">
-        <v>172</v>
-      </c>
-      <c r="S16" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="128" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
